--- a/ig/ch-epl/StructureDefinition-reimbursementSL.xlsx
+++ b/ig/ch-epl/StructureDefinition-reimbursementSL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -252,16 +252,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
@@ -269,6 +266,9 @@
     <t>Extension.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">id
 </t>
   </si>
@@ -591,6 +591,22 @@
   </si>
   <si>
     <t>Extension.extension:gamme.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:productPrice</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epl/StructureDefinition/productPrice}
+</t>
+  </si>
+  <si>
+    <t>CH - EPL Product Price</t>
+  </si>
+  <si>
+    <t>A set of information about the price of a drug</t>
   </si>
   <si>
     <t>base64Binary
@@ -911,7 +927,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK56"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1162,13 +1178,13 @@
         <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>77</v>
@@ -1176,10 +1192,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1190,7 +1206,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1265,7 +1281,7 @@
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>88</v>
@@ -1293,7 +1309,7 @@
         <v>91</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -1368,13 +1384,13 @@
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1395,10 +1411,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1473,13 +1489,13 @@
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -1501,7 +1517,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1576,7 +1592,7 @@
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>88</v>
@@ -1679,13 +1695,13 @@
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -1704,10 +1720,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -1781,10 +1797,10 @@
         <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
@@ -1809,10 +1825,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -1887,7 +1903,7 @@
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>119</v>
@@ -1914,10 +1930,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -1992,13 +2008,13 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -2020,7 +2036,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2095,7 +2111,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>88</v>
@@ -2198,13 +2214,13 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
@@ -2223,10 +2239,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2300,10 +2316,10 @@
         <v>111</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -2328,10 +2344,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2406,7 +2422,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>119</v>
@@ -2433,10 +2449,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2511,13 +2527,13 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -2539,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -2614,7 +2630,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>88</v>
@@ -2717,13 +2733,13 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -2742,10 +2758,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -2819,10 +2835,10 @@
         <v>111</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -2847,10 +2863,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -2925,7 +2941,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>119</v>
@@ -2955,7 +2971,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3030,13 +3046,13 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3058,7 +3074,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3133,7 +3149,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>88</v>
@@ -3236,13 +3252,13 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -3261,10 +3277,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3338,10 +3354,10 @@
         <v>111</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -3366,10 +3382,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3444,7 +3460,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>119</v>
@@ -3471,10 +3487,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -3549,13 +3565,13 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -3577,7 +3593,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -3652,7 +3668,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>88</v>
@@ -3755,13 +3771,13 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -3780,10 +3796,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -3857,10 +3873,10 @@
         <v>111</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -3885,10 +3901,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -3963,7 +3979,7 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>119</v>
@@ -3990,10 +4006,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4068,13 +4084,13 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4096,7 +4112,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4171,7 +4187,7 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>88</v>
@@ -4274,13 +4290,13 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -4299,10 +4315,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -4376,10 +4392,10 @@
         <v>111</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -4404,10 +4420,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -4482,7 +4498,7 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>119</v>
@@ -4509,10 +4525,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -4587,13 +4603,13 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -4615,7 +4631,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -4690,7 +4706,7 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>88</v>
@@ -4793,13 +4809,13 @@
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -4818,10 +4834,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -4895,10 +4911,10 @@
         <v>111</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -4923,10 +4939,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5001,7 +5017,7 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>119</v>
@@ -5031,7 +5047,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5106,13 +5122,13 @@
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -5134,7 +5150,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -5209,7 +5225,7 @@
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>88</v>
@@ -5312,13 +5328,13 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -5337,10 +5353,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -5414,10 +5430,10 @@
         <v>111</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -5442,10 +5458,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -5520,7 +5536,7 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>119</v>
@@ -5550,7 +5566,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -5625,13 +5641,13 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -5653,7 +5669,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -5728,7 +5744,7 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>88</v>
@@ -5831,13 +5847,13 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -5856,10 +5872,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -5933,10 +5949,10 @@
         <v>111</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -5961,10 +5977,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -6039,7 +6055,7 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>119</v>
@@ -6069,7 +6085,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -6144,13 +6160,13 @@
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -6172,7 +6188,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -6247,7 +6263,7 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>88</v>
@@ -6350,13 +6366,13 @@
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -6375,10 +6391,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -6452,10 +6468,10 @@
         <v>111</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -6480,10 +6496,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -6558,7 +6574,7 @@
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>119</v>
@@ -6572,18 +6588,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -6598,24 +6616,22 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>77</v>
@@ -6657,10 +6673,10 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -6669,18 +6685,18 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6688,10 +6704,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -6703,22 +6719,24 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -6760,21 +6778,124 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
+      <c r="B57" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AJ57" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AK57" t="s" s="2">
         <v>112</v>
       </c>
     </row>
